--- a/test_suite/PROJECT2/PROJECT2_LOGIN_TestCase_test_result.xlsx
+++ b/test_suite/PROJECT2/PROJECT2_LOGIN_TestCase_test_result.xlsx
@@ -64,7 +64,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -91,14 +91,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -189,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -260,9 +254,6 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -538,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:L12"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD12"/>
@@ -653,11 +644,16 @@
       <c r="H4" s="23" t="n"/>
       <c r="I4" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J4" s="31" t="n">
-        <v>44101.59346492545</v>
+        <v>44625.7364559432</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="1" r="5">
@@ -695,11 +691,16 @@
       <c r="H5" s="23" t="n"/>
       <c r="I5" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J5" s="31" t="n">
-        <v>44101.59351611691</v>
+        <v>44625.73664524339</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="1" r="6">
@@ -737,11 +738,16 @@
       <c r="H6" s="23" t="n"/>
       <c r="I6" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J6" s="31" t="n">
-        <v>44101.59356833674</v>
+        <v>44625.73683458325</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
+        </is>
       </c>
     </row>
     <row customHeight="1" ht="60" outlineLevel="1" r="7">
@@ -780,16 +786,15 @@
       </c>
       <c r="I7" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J7" s="31" t="n">
-        <v>44101.59366643023</v>
-      </c>
-      <c r="L7" s="32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LoginPageLockedUserMessage: EXPECTED= 'Epic sadface: Sorry, this user has been locked out.'   ACTUAL= 'Epic sadface: Sorry, this user has been locked out.'     OR
-</t>
+        <v>44625.73702320208</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
         </is>
       </c>
     </row>
@@ -840,11 +845,16 @@
       <c r="H9" s="23" t="n"/>
       <c r="I9" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J9" s="31" t="n">
-        <v>44101.59371469816</v>
+        <v>44625.73721210414</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="1" r="10">
@@ -882,11 +892,16 @@
       <c r="H10" s="23" t="n"/>
       <c r="I10" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J10" s="31" t="n">
-        <v>44101.59376665765</v>
+        <v>44625.73740115917</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="1" r="11">
@@ -924,11 +939,16 @@
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="30" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>PENDING</t>
         </is>
       </c>
       <c r="J11" s="31" t="n">
-        <v>44101.59381775204</v>
+        <v>44625.73758915305</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>&lt;class 'selenium.common.exceptions.WebDriverException'&gt;</t>
+        </is>
       </c>
     </row>
     <row outlineLevel="1" r="12">
@@ -960,14 +980,8 @@
         </is>
       </c>
       <c r="H12" s="23" t="n"/>
-      <c r="I12" s="30" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="J12" s="31" t="n">
-        <v>44101.59395179249</v>
-      </c>
+      <c r="I12" s="23" t="n"/>
+      <c r="J12" s="23" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1242,15 +1256,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
+    <hyperlink ref="D4" r:id="rId14"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
